--- a/data/Trash-Wheel-Collection-Totals-8-6-19.xlsx
+++ b/data/Trash-Wheel-Collection-Totals-8-6-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saman\OneDrive - cumc.columbia.edu\School\Semester 3\Data Science\HW\HW 2 this one\samloewen-p8105_hw2_scl2160\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{CFC6B314-36A6-9646-9EBB-C6D4AB25008D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{07258B67-5AFD-446A-A819-11B47C1DE974}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{CFC6B314-36A6-9646-9EBB-C6D4AB25008D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{EB1C35F7-30E2-4070-886D-B51181D5CE59}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="14400" windowHeight="7495" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="640" windowWidth="18170" windowHeight="9580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mr. Trash Wheel" sheetId="3" r:id="rId1"/>
@@ -1560,7 +1560,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>86547</xdr:colOff>
+      <xdr:colOff>86548</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1615379</xdr:rowOff>
     </xdr:to>
@@ -1604,7 +1604,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>856278</xdr:colOff>
+      <xdr:colOff>750444</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1863043</xdr:rowOff>
     </xdr:to>
@@ -2153,7 +2153,7 @@
   <dimension ref="A1:DL454"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="G412" sqref="G412"/>
     </sheetView>
@@ -2163,7 +2163,7 @@
     <col min="1" max="1" width="9.5" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" style="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.1640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.20703125" style="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" style="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" style="26" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="13.1640625" style="26" bestFit="1" customWidth="1"/>
